--- a/JTEHM_McCombe_data.xlsx
+++ b/JTEHM_McCombe_data.xlsx
@@ -8,19 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\niamh\OneDrive - Ulster University\feature selection code check\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8672C139-0FBE-483B-8930-9B8F7423785B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{DBE61598-A44F-4047-A218-6D3C26F6A177}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395"/>
   </bookViews>
   <sheets>
-    <sheet name="cost sensitive CFS output" sheetId="1" r:id="rId1"/>
+    <sheet name="5-fold FS without costs " sheetId="2" r:id="rId1"/>
+    <sheet name="cost sensitive CFS output" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="73">
   <si>
     <t>0.872654028046752</t>
   </si>
@@ -107,6 +108,138 @@
   </si>
   <si>
     <t>items in group</t>
+  </si>
+  <si>
+    <t>AUC</t>
+  </si>
+  <si>
+    <t>Number of features</t>
+  </si>
+  <si>
+    <t>List of Features</t>
+  </si>
+  <si>
+    <t>0.889274095728891</t>
+  </si>
+  <si>
+    <t>RAVLT.immediate faq_FAQBEVG faq_FAQEVENT faq_FAQFINAN faq_FAQMEAL faq_FAQREM faq_FAQSHOP faq_FAQTRAVL faq_FAQTV mmse_MMCITY mmse_objects adas_Q4SCORE adas_Q7SCORE adas_Q8SCORE TRABSCOR BNTTOTAL gd_GDMEMORY ecog_MEMORY1 ecog_PLAN5</t>
+  </si>
+  <si>
+    <t>0.88700240207849</t>
+  </si>
+  <si>
+    <t>RAVLT.immediate faq_FAQBEVG faq_FAQEVENT faq_FAQFINAN faq_FAQFORM faq_FAQGAME faq_FAQMEAL faq_FAQREM faq_FAQSHOP faq_FAQTRAVL faq_FAQTV mmse_MMFLOOR adas_Q4SCORE adas_Q1SCORE adas_Q10SCORE TRABSCOR BNTTOTAL AVDELTOT gd_GDMEMORY ecog_MEMORY1</t>
+  </si>
+  <si>
+    <t>0.880376556298963</t>
+  </si>
+  <si>
+    <t>faq_FAQEVENT faq_FAQFINAN faq_FAQFORM faq_FAQGAME faq_FAQMEAL faq_FAQREM faq_FAQSHOP faq_FAQTRAVL faq_FAQTV mmse_MMDATE adas_Q4SCORE adas_Q1SCORE adas_Q7SCORE CATANIMSC TRABSCOR BNTTOTAL gd_GDDROP gd_GDMEMORY gd_GDWORTH ecog_LANG7 ecog_MEMORY1 ecog_MEMORY2 ecog_MEMORY4 ecog_ORGAN6</t>
+  </si>
+  <si>
+    <t>0.867390161612428</t>
+  </si>
+  <si>
+    <t>faq_FAQFINAN faq_FAQFORM faq_FAQGAME faq_FAQMEAL faq_FAQREM faq_FAQSHOP faq_FAQTRAVL faq_FAQTV mmse_objects adas_Q4SCORE adas_Q7SCORE CATANIMSC BNTTOTAL AVDELTOT ecog_LANG9 ecog_PLAN3</t>
+  </si>
+  <si>
+    <t>0.884976761667935</t>
+  </si>
+  <si>
+    <t>RAVLT.immediate faq_FAQEVENT faq_FAQFINAN faq_FAQFORM faq_FAQGAME faq_FAQMEAL faq_FAQREM faq_FAQSHOP faq_FAQTRAVL mmse_MMDAY mmse_objects adas_Q4SCORE adas_Q1SCORE adas_Q8SCORE CATANIMSC TRABSCOR gd_GDMEMORY ecog_PLAN3</t>
+  </si>
+  <si>
+    <t>0.8702725037447</t>
+  </si>
+  <si>
+    <t>0.864447060409649</t>
+  </si>
+  <si>
+    <t>0.871944448586633</t>
+  </si>
+  <si>
+    <t>0.863316617842934</t>
+  </si>
+  <si>
+    <t>0.86742070423488</t>
+  </si>
+  <si>
+    <t>0.891311709377254</t>
+  </si>
+  <si>
+    <t>RAVLT.immediate moca_language faq_FAQBEVG faq_FAQEVENT faq_FAQFINAN faq_FAQFORM faq_FAQGAME faq_FAQMEAL faq_FAQREM faq_FAQSHOP faq_FAQTRAVL faq_FAQTV mmse_objects adas_Q4SCORE adas_Q1SCORE adas_Q7SCORE gd_GDMEMORY ecog_DIVATT4 ecog_LANG1 ecog_MEMORY1</t>
+  </si>
+  <si>
+    <t>0.884174293292747</t>
+  </si>
+  <si>
+    <t>RAVLT.immediate faq_FAQBEVG faq_FAQEVENT faq_FAQFINAN faq_FAQFORM faq_FAQGAME faq_FAQMEAL faq_FAQREM faq_FAQSHOP faq_FAQTRAVL faq_FAQTV adas_Q4SCORE adas_Q1SCORE adas_Q10SCORE CATANIMSC AVDELTOT gd_GDMEMORY ecog_LANG9 ecog_MEMORY1</t>
+  </si>
+  <si>
+    <t>0.885283906144912</t>
+  </si>
+  <si>
+    <t>faq_FAQEVENT faq_FAQFINAN faq_FAQFORM faq_FAQGAME faq_FAQMEAL faq_FAQREM faq_FAQSHOP faq_FAQTRAVL faq_FAQTV mmse_MMDATE adas_Q4SCORE adas_Q1SCORE CATANIMSC TRABSCOR BNTTOTAL gd_GDMEMORY ecog_DIVATT4 ecog_LANG7 ecog_MEMORY1 ecog_MEMORY2 ecog_MEMORY3 ecog_MEMORY4 ecog_MEMORY6</t>
+  </si>
+  <si>
+    <t>0.877143304749275</t>
+  </si>
+  <si>
+    <t>RAVLT.immediate faq_FAQEVENT faq_FAQFINAN faq_FAQFORM faq_FAQGAME faq_FAQMEAL faq_FAQREM faq_FAQSHOP faq_FAQTRAVL faq_FAQTV mmse_objects adas_Q4SCORE adas_Q1SCORE adas_Q7SCORE CATANIMSC BNTTOTAL AVDELTOT ecog_LANG9 ecog_PLAN3 ecog_PLAN4</t>
+  </si>
+  <si>
+    <t>0.884387143544527</t>
+  </si>
+  <si>
+    <t>RAVLT.immediate faq_FAQEVENT faq_FAQFINAN faq_FAQFORM faq_FAQGAME faq_FAQMEAL faq_FAQREM faq_FAQSHOP faq_FAQTRAVL adas_Q4SCORE adas_Q1SCORE adas_Q7SCORE adas_Q8SCORE TRABSCOR gd_GDMEMORY gd_GDWORTH ecog_LANG7 ecog_LANG9 ecog_MEMORY5 ecog_PLAN3</t>
+  </si>
+  <si>
+    <t>Algorithm and Fold</t>
+  </si>
+  <si>
+    <t>CFS_ 1</t>
+  </si>
+  <si>
+    <t>CFS_ 2</t>
+  </si>
+  <si>
+    <t>CFS_ 3</t>
+  </si>
+  <si>
+    <t>CFS_ 4</t>
+  </si>
+  <si>
+    <t>CFS_ 5</t>
+  </si>
+  <si>
+    <t>Consistency_ 1</t>
+  </si>
+  <si>
+    <t>Consistency_ 2</t>
+  </si>
+  <si>
+    <t>Consistency_ 3</t>
+  </si>
+  <si>
+    <t>Consistency_ 4</t>
+  </si>
+  <si>
+    <t>Consistency_ 5</t>
+  </si>
+  <si>
+    <t>Boruta_ 1</t>
+  </si>
+  <si>
+    <t>Boruta_ 2</t>
+  </si>
+  <si>
+    <t>Boruta_ 3</t>
+  </si>
+  <si>
+    <t>Boruta_ 4</t>
+  </si>
+  <si>
+    <t>Boruta_ 5</t>
   </si>
 </sst>
 </file>
@@ -947,9 +1080,248 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2">
+        <v>19</v>
+      </c>
+      <c r="D2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3">
+        <v>20</v>
+      </c>
+      <c r="D3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5">
+        <v>16</v>
+      </c>
+      <c r="D5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>62</v>
+      </c>
+      <c r="B6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6">
+        <v>18</v>
+      </c>
+      <c r="D6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>63</v>
+      </c>
+      <c r="B7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C7">
+        <v>16</v>
+      </c>
+      <c r="D7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
+        <v>64</v>
+      </c>
+      <c r="B8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8">
+        <v>16</v>
+      </c>
+      <c r="D8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
+        <v>65</v>
+      </c>
+      <c r="B9" t="s">
+        <v>44</v>
+      </c>
+      <c r="C9">
+        <v>17</v>
+      </c>
+      <c r="D9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
+        <v>66</v>
+      </c>
+      <c r="B10" t="s">
+        <v>45</v>
+      </c>
+      <c r="C10">
+        <v>19</v>
+      </c>
+      <c r="D10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A11" t="s">
+        <v>67</v>
+      </c>
+      <c r="B11" t="s">
+        <v>46</v>
+      </c>
+      <c r="C11">
+        <v>13</v>
+      </c>
+      <c r="D11" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A12" t="s">
+        <v>68</v>
+      </c>
+      <c r="B12" t="s">
+        <v>47</v>
+      </c>
+      <c r="C12">
+        <v>20</v>
+      </c>
+      <c r="D12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A13" t="s">
+        <v>69</v>
+      </c>
+      <c r="B13" t="s">
+        <v>49</v>
+      </c>
+      <c r="C13">
+        <v>19</v>
+      </c>
+      <c r="D13" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A14" t="s">
+        <v>70</v>
+      </c>
+      <c r="B14" t="s">
+        <v>51</v>
+      </c>
+      <c r="C14">
+        <v>23</v>
+      </c>
+      <c r="D14" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A15" t="s">
+        <v>71</v>
+      </c>
+      <c r="B15" t="s">
+        <v>53</v>
+      </c>
+      <c r="C15">
+        <v>20</v>
+      </c>
+      <c r="D15" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A16" t="s">
+        <v>72</v>
+      </c>
+      <c r="B16" t="s">
+        <v>55</v>
+      </c>
+      <c r="C16">
+        <v>20</v>
+      </c>
+      <c r="D16" t="s">
+        <v>56</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
